--- a/biology/Médecine/Séverin_Gałęzowski/Séverin_Gałęzowski.xlsx
+++ b/biology/Médecine/Séverin_Gałęzowski/Séverin_Gałęzowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9verin_Ga%C5%82%C4%99zowski</t>
+          <t>Séverin_Gałęzowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Seweryn Gaspard Gałęzowski, né à Kniaża Krynycia (Ukraine) le 25 janvier 1801, mort à Paris le 31 mars 1878, est un médecin et chirurgien polonais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9verin_Ga%C5%82%C4%99zowski</t>
+          <t>Séverin_Gałęzowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jean et Marie de Reinberg et l'oncle de Ksawery Gałęzowski, avec lequel il arrive à Paris après avoir fui la Pologne à la suite de l'invasion de l'Empire russe.
 Il est professeur à Université de Vilno, et médecin en chef de l’armée lors de l'Insurrection de novembre 1830.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9verin_Ga%C5%82%C4%99zowski</t>
+          <t>Séverin_Gałęzowski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chevalier dans l'Ordre militaire de Virtuti Militari</t>
         </is>
